--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s141233\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s154009\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -252,6 +252,11 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +540,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,6 +549,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
       <c r="B1" s="13">
         <v>42531</v>
       </c>
@@ -579,8 +585,8 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -592,8 +598,8 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -611,16 +617,16 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
       <c r="N4" t="s">
         <v>7</v>
       </c>
@@ -629,7 +635,7 @@
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -257,6 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +541,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,16 +618,16 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
       <c r="N4" t="s">
         <v>7</v>
       </c>
@@ -635,9 +636,9 @@
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -649,22 +650,22 @@
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -692,7 +693,7 @@
       <c r="A9" s="11"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -719,8 +720,8 @@
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -738,16 +739,16 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Rapport</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Reelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -151,24 +154,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -235,27 +220,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -538,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,44 +532,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="13">
+      <c r="A1" s="17"/>
+      <c r="B1" s="10">
         <v>42531</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="10">
         <v>42534</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="10">
         <v>42535</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="10">
         <v>42536</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="10">
         <v>42537</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="10">
         <v>42538</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="10">
         <v>42541</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="10">
         <v>42542</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="10">
         <v>42543</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="10">
         <v>42544</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -598,29 +580,29 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
       <c r="N3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="15"/>
+      <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -631,107 +613,107 @@
       <c r="N4" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="14"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1"/>
@@ -739,24 +721,29 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="21"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
